--- a/src/test/resources/students.xlsx
+++ b/src/test/resources/students.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\apachePOI\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CC45E9-5A2E-4822-A34D-EB93E69187F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33911080-9B6C-4C2E-9E32-464DB7138DF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20550" yWindow="915" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="2400" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -12110,8 +12110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="L101" sqref="L101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -32157,7 +32157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DFCB75F-838F-4D4A-9F37-FD3DB1578978}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
